--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,6 +2093,26 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>07:48</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,6 +2113,246 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22:04</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>22:04</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>22:04</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>22:04</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>trà chanh(size L) x1, trà chanh(size M) x1, trà chanh(size S) x1</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>cacao(size L) x1</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>cacao(size S) x1, matcha(size L) x1, matcha(size S) x1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>matcha(size L) x1, matcha(size M) x1</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22:06</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>trà đào(size L) x1, cacao(size M) x1, cacao(size S) x1, matcha(size S) x1</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22:06</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>matcha(size L) x1</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>22:07</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>22:07</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2353,6 +2357,204 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>20:13:22</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20:25:15</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20:25:38</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20:54:20</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>21:57:24</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>22:54:10</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>bánh cá chà bông x1, bánh cá phô mai sô cô la x1</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>22:55:53</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2555,6 +2555,46 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>14:41:57</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá phô mai sô cô la x2, bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>141000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>15:05:23</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2595,6 +2595,26 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>06:14:25</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2615,6 +2615,82 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>00:42:15</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>bánh cá sô cô la x1, bánh cá phô mai sô cô la x1, trà đào(size M) x1</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>00:56:32</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>13:09:05</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai x1, bánh cá sô cô la x1, trà đào(size L) x1, trà chanh(size L) x1</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>14:20:17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x2</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,797 +440,711 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>done_orders</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>done_orders</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>05:25</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>24000</v>
+      <c r="D2" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>05:32</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>16000</v>
+      <c r="D3" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>05:32</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>8000</v>
+      <c r="D4" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>05:39</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>8000</v>
+      <c r="D5" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>05:39</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>8000</v>
+      <c r="D6" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>05:43</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8000</v>
+      <c r="D7" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>07:38</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>40000</v>
+      <c r="D8" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x9, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá trứng muối x2, trà đào(size L) x2, trà đào(size M) x1, trà đào(size S) x1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>219000</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>07:48</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x9, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá trứng muối x2, trà đào(size L) x2, trà đào(size M) x1, trà đào(size S) x1</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>219000</v>
+      <c r="D9" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>09:18</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>40000</v>
+      <c r="D10" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>09:18</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>24000</v>
+      <c r="D11" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>11:01</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>24000</v>
+      <c r="D12" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>11:04</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>8000</v>
+      <c r="D13" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>11:07</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>8000</v>
+      <c r="D14" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>11:07</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>8000</v>
+      <c r="D15" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>11:08</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8000</v>
+      <c r="D16" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá sô cô la x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>11:12</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá sô cô la x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>24000</v>
+      <c r="D17" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>11:13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>32000</v>
+      <c r="D18" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>11:21</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>8000</v>
+      <c r="D19" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>11:25</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>8000</v>
+      <c r="D20" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>11:37</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>8000</v>
+      <c r="D21" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>11:39</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>8000</v>
+      <c r="D22" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>11:39</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>8000</v>
+      <c r="D23" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+          <t>bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>11:40</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>8000</v>
+      <c r="D24" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>11:40</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>8000</v>
+      <c r="D25" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>11:41</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>16000</v>
+      <c r="D26" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>11:41</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>32000</v>
+      <c r="D27" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>11:49:00</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>8000</v>
+      <c r="D28" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+          <t>bánh cá sô cô la x2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>11:53</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x2</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>16000</v>
+      <c r="D29" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>11:54</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>8000</v>
+      <c r="D30" s="2" t="n">
+        <v>45740</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>19:16</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>40000</v>
+      <c r="D31" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>19:16</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>16000</v>
+      <c r="D32" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>24000</v>
+      <c r="D33" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>8000</v>
+      <c r="D34" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>19:38</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8000</v>
+      <c r="D35" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>19:47</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>8000</v>
+      <c r="D36" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>19:57</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>8000</v>
+      <c r="D37" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>20:08</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>8000</v>
+      <c r="D38" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>20:08</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>16000</v>
+      <c r="D39" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>20:36</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>bánh cá matcha x2
 bánh cá phô mai  x1
@@ -1239,44 +1153,40 @@
 bánh cá bò khô x1</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="B40" t="n">
         <v>56000</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>20:36</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>bánh cá phô mai  x1
 bánh cá sô cô la x1
 bánh cá chà bông x1</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="B41" t="n">
         <v>24000</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>20:36</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>bánh cá matcha x1
 bánh cá phô mai  x1
@@ -1284,22 +1194,20 @@
 bánh cá bò khô x1</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="B42" t="n">
         <v>32000</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>20:36</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>bánh cá matcha x2
 bánh cá phô mai  x2
@@ -1311,22 +1219,20 @@
 trà đào(size S) x1</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="B43" t="n">
         <v>133000</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>20:52</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>bánh cá matcha x1
 bánh cá phô mai  x1
@@ -1339,22 +1245,20 @@
 trà đào(size L) x1</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="B44" t="n">
         <v>134000</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:52</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45741</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>01:20</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>bánh cá matcha x1
 bánh cá phô mai  x1
@@ -1362,1333 +1266,1377 @@
 bánh cá chà bông x1</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="B45" t="n">
         <v>32000</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01:20</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>01:22</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>8000</v>
+      <c r="D46" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+          <t>bánh cá matcha x2</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>01:25</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x2</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>16000</v>
+      <c r="D47" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>01:27</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>8000</v>
+      <c r="D48" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>01:29</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>8000</v>
+      <c r="D49" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>01:29</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>8000</v>
+      <c r="D50" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>01:30</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>8000</v>
+      <c r="D51" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>01:36</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>8000</v>
+      <c r="D52" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+          <t>bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>01:38</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>8000</v>
+      <c r="D53" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>01:38</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>bánh cá sô cô la x1
 bánh cá chà bông x1
 bánh cá bò khô x1</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="B54" t="n">
         <v>24000</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01:38</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>01:46</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>bánh cá phô mai  x1
 bánh cá sô cô la x1</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="B55" t="n">
         <v>16000</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01:46</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>01:46</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>bánh cá phô mai  x1
 bánh cá sô cô la x1
 bánh cá chà bông x1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="B56" t="n">
         <v>24000</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01:46</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
+          <t>matcha(size S) x1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>01:46</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>matcha(size S) x1</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>10000</v>
+      <c r="D57" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
+          <t>matcha(size M) x1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>01:47</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>matcha(size M) x1</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>15000</v>
+      <c r="D58" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>01:48</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>8000</v>
+      <c r="D59" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
+          <t>trà đào(size M) x1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>01:51</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>trà đào(size M) x1</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>15000</v>
+      <c r="D60" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
+          <t>matcha(size L) x2</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>01:51</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>matcha(size L) x2</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>40000</v>
+      <c r="D61" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>02:24</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>bánh cá matcha x1
 bánh cá sô cô la x1
 bánh cá chà bông x1</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="B62" t="n">
         <v>24000</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>02:24</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>02:35</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>bánh cá sô cô la x2
 bánh cá chà bông x1
 bánh cá bò khô x1</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="B63" t="n">
         <v>32000</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>02:35</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>03:39</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>8000</v>
+      <c r="D64" s="2" t="n">
+        <v>45744</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>08:45</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
           <t>bánh cá sô cô la x1
 bánh cá chà bông x1</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="B65" t="n">
         <v>16000</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45747</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>15:47</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
           <t>bánh cá phô mai  x1
 bánh cá sô cô la x1</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="B66" t="n">
         <v>16000</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>15:47</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45754</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>05:09</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>24000</v>
+      <c r="D67" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, trà chanh(size S) x1, cacao(size L) x1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>05:12</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, trà chanh(size S) x1, cacao(size L) x1</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>46000</v>
+      <c r="D68" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>05:30</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>8000</v>
+      <c r="D69" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>06:04</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>24000</v>
+      <c r="D70" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>06:04</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>24000</v>
+      <c r="D71" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, trà chanh(size S) x1, cacao(size L) x2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>82000</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>06:06</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1, trà chanh(size S) x1, cacao(size L) x2</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>82000</v>
+      <c r="D72" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
+          <t>bánh cá sô cô la x1, bánh cá chà bông x1, matcha(size M) x1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>31000</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>06:10</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1, bánh cá chà bông x1, matcha(size M) x1</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>31000</v>
+      <c r="D73" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
+          <t>bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>06:23</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>8000</v>
+      <c r="D74" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>06:30</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>24000</v>
+      <c r="D75" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>06:35</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>24000</v>
+      <c r="D76" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>06:41</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>16000</v>
+      <c r="D77" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
+          <t>bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>06:45</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>8000</v>
+      <c r="D78" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>06:46</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>32000</v>
+      <c r="D79" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>06:54</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>8000</v>
+      <c r="D80" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>07:10</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>8000</v>
+      <c r="D81" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>07:48</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>32000</v>
+      <c r="D82" s="2" t="n">
+        <v>45755</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>22:04</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>24000</v>
+      <c r="D83" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>22:04</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>24000</v>
+      <c r="D84" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>22:04</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>24000</v>
+      <c r="D85" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>22:04</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai  x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>24000</v>
+      <c r="D86" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
+          <t>trà chanh(size L) x1, trà chanh(size M) x1, trà chanh(size S) x1</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>22:05</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>trà chanh(size L) x1, trà chanh(size M) x1, trà chanh(size S) x1</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>45000</v>
+      <c r="D87" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
+          <t>cacao(size L) x1</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>22:05</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>cacao(size L) x1</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>20000</v>
+      <c r="D88" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
+          <t>cacao(size S) x1, matcha(size L) x1, matcha(size S) x1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>22:05</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>cacao(size S) x1, matcha(size L) x1, matcha(size S) x1</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>40000</v>
+      <c r="D89" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
+          <t>matcha(size L) x1, matcha(size M) x1</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>22:05</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>matcha(size L) x1, matcha(size M) x1</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>35000</v>
+      <c r="D90" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+          <t>trà đào(size L) x1, cacao(size M) x1, cacao(size S) x1, matcha(size S) x1</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>22:06</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>trà đào(size L) x1, cacao(size M) x1, cacao(size S) x1, matcha(size S) x1</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>55000</v>
+      <c r="D91" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
+          <t>matcha(size L) x1</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>22:06</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>matcha(size L) x1</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>20000</v>
+      <c r="D92" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
+          <t>bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>22:07</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>8000</v>
+      <c r="D93" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
+          <t>bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>22:07</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>55000</v>
+      <c r="D94" s="2" t="n">
+        <v>45758</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>20:13:22</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>8000</v>
+      <c r="D95" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
+          <t>bánh cá matcha x1</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>20:25:15</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>8000</v>
+      <c r="D96" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
+          <t>bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>20:25:38</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>8000</v>
+      <c r="D97" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
+          <t>bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>20:54:20</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai x1</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>8000</v>
+      <c r="D98" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>21:57:24</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>24000</v>
+      <c r="D99" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
+          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>22:20</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai  x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>24000</v>
+      <c r="D100" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
+          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>22:20</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>16000</v>
+      <c r="D101" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
+          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1, bánh cá bò khô x1</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>16000</v>
+      <c r="D102" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>bánh cá chà bông x1, bánh cá phô mai sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>18000</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>22:54:10</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
         <v>45759</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>22:54:10</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>bánh cá chà bông x1, bánh cá phô mai sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>18000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>22:55:53</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>16000</v>
+      <c r="D104" s="2" t="n">
+        <v>45759</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá phô mai sô cô la x2, bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>141000</v>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>14:41:57</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1, bánh cá bò khô x1, bánh cá phô mai sô cô la x2, bánh cá phô mai chà bông x1, bánh cá phô mai sô cô la x2, bánh cá trứng muối x1, trà đào(size L) x1, trà đào(size M) x1, trà đào(size S) x1</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>141000</v>
+      <c r="D105" s="2" t="n">
+        <v>45760</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>15:05:23</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>24000</v>
+      <c r="D106" s="2" t="n">
+        <v>45760</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
+          <t>bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>06:14:25</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>16000</v>
+      <c r="D107" s="2" t="n">
+        <v>45765</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>bánh cá sô cô la x1, bánh cá phô mai sô cô la x1, trà đào(size M) x1</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>31000</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>00:42:15</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
         <v>45768</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>00:42:15</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>bánh cá sô cô la x1, bánh cá phô mai sô cô la x1, trà đào(size M) x1</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>31000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>00:56:32</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, bánh cá chà bông x1</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>32000</v>
+      <c r="D109" s="2" t="n">
+        <v>45768</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai x1, bánh cá sô cô la x1, trà đào(size L) x1, trà chanh(size L) x1</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>56000</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>13:09:05</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
         <v>45768</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>13:09:05</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>bánh cá phô mai x1, bánh cá sô cô la x1, trà đào(size L) x1, trà chanh(size L) x1</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>56000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
+          <t>bánh cá matcha x2</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>14:20:17</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>bánh cá matcha x2</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
         <v>16000</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>01:45:13</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>01:46:27</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>02:12:00</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>02:23:13</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá bò khô x1, trà đào(size L) x1</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>02:32:04</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>02:37:37</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x1, bánh cá phô mai x1, bánh cá sô cô la x1, trà đào(size M) x1</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>02:49:17</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>bánh cá sô cô la x1, bánh cá chà bông x1</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>03:37:35</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>bánh cá matcha x2, bánh cá phô mai x1</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>03:39:06</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45775</v>
       </c>
     </row>
   </sheetData>

--- a/microservices/shared_data/revenue.xlsx
+++ b/microservices/shared_data/revenue.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,6 +2639,24 @@
         <v>45775</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>bánh cá trứng muối x2, trà đào(size M) x4</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>80000</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>14:27:36</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
